--- a/src/main/resources/custdetails.xlsx
+++ b/src/main/resources/custdetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="9825" windowHeight="6420" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="9825" windowHeight="6420" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="SelfPacedAndLive" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:B20"/>
+  <oleSize ref="A1:F20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>fname</t>
   </si>
@@ -57,56 +57,98 @@
     <t>query</t>
   </si>
   <si>
-    <t>coupon</t>
+    <t>validatecourse</t>
+  </si>
+  <si>
+    <t>Self-Paced And Live courses</t>
+  </si>
+  <si>
+    <t>Master Ethical Hacking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop RESTful Java Web Services </t>
+  </si>
+  <si>
+    <t>specificcourse</t>
+  </si>
+  <si>
+    <t>validateaddedcourse</t>
+  </si>
+  <si>
+    <t>validateQuery</t>
+  </si>
+  <si>
+    <t>confirmpass</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>cardno</t>
+  </si>
+  <si>
+    <t>expDate</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>telephn</t>
+  </si>
+  <si>
+    <t>4012 8888 8888 1881</t>
+  </si>
+  <si>
+    <t>montreal</t>
+  </si>
+  <si>
+    <t>3453453456</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>newyork</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>10030</t>
+  </si>
+  <si>
+    <t>tesNG12@gmail.com</t>
+  </si>
+  <si>
+    <t>Coupon</t>
   </si>
   <si>
     <t>FRWEBM4</t>
   </si>
   <si>
-    <t>validatecourse</t>
-  </si>
-  <si>
-    <t>Self-Paced And Live courses</t>
-  </si>
-  <si>
-    <t>AP50PCT</t>
-  </si>
-  <si>
-    <t>Master Ethical Hacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS Online Training </t>
-  </si>
-  <si>
-    <t>AP50DSELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop RESTful Java Web Services </t>
-  </si>
-  <si>
-    <t>specificcourse</t>
-  </si>
-  <si>
-    <t>validateaddedcourse</t>
-  </si>
-  <si>
-    <t>validateQuery</t>
-  </si>
-  <si>
-    <t>confirmpass</t>
-  </si>
-  <si>
-    <t>ValidateaddedCourse</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Apache Spark Online Training</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +166,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,10 +202,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -479,15 +534,15 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -527,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -566,13 +621,13 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -583,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -603,96 +658,224 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="N3" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>